--- a/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 2018.xlsx
+++ b/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin\Desktop\Dashboard_Vers1\data\Economic_Impact\GDP\Climate Risk Assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444966C-5D42-4545-A254-C9871932E5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C79B3-3002-4666-8998-31C4AA4F3CF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{DD317847-3D26-4A22-AE22-E51F2E491B1C}"/>
   </bookViews>
@@ -113,10 +113,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>CRI
-score</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -1450,6 +1446,9 @@
   </si>
   <si>
     <t>Losses per unit GDP in % (Rank)</t>
+  </si>
+  <si>
+    <t>CRI score</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2007,7 @@
   <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,4252 +2031,4252 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="D1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" t="s">
         <v>444</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>445</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>446</v>
-      </c>
-      <c r="G1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
         <v>201</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" t="s">
-        <v>202</v>
-      </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
         <v>203</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>204</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>205</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>206</v>
-      </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
         <v>207</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>208</v>
       </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>209</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>210</v>
-      </c>
-      <c r="G4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
         <v>213</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>214</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>215</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>216</v>
-      </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
         <v>218</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>219</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
         <v>220</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>221</v>
-      </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
         <v>222</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>223</v>
       </c>
-      <c r="D9" t="s">
-        <v>224</v>
-      </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
         <v>227</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>228</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
         <v>229</v>
       </c>
-      <c r="D12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
         <v>230</v>
-      </c>
-      <c r="F12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" t="s">
         <v>233</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>234</v>
       </c>
-      <c r="C14" t="s">
-        <v>235</v>
-      </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" t="s">
         <v>236</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
         <v>237</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" t="s">
-        <v>238</v>
-      </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s">
         <v>240</v>
       </c>
-      <c r="C17" t="s">
-        <v>241</v>
-      </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" t="s">
         <v>243</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>244</v>
       </c>
-      <c r="C19" t="s">
-        <v>245</v>
-      </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" t="s">
         <v>246</v>
       </c>
-      <c r="C20" t="s">
-        <v>247</v>
-      </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" t="s">
         <v>249</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>250</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
         <v>251</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" t="s">
         <v>254</v>
       </c>
-      <c r="C24" t="s">
-        <v>255</v>
-      </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
         <v>257</v>
       </c>
-      <c r="C26" t="s">
-        <v>258</v>
-      </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" t="s">
         <v>259</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>260</v>
       </c>
-      <c r="D27" t="s">
-        <v>261</v>
-      </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" t="s">
         <v>262</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>263</v>
       </c>
-      <c r="C28" t="s">
-        <v>264</v>
-      </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s">
         <v>265</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>266</v>
       </c>
-      <c r="C29" t="s">
-        <v>267</v>
-      </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" t="s">
         <v>269</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>270</v>
       </c>
-      <c r="C31" t="s">
-        <v>271</v>
-      </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" t="s">
         <v>273</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
         <v>274</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" t="s">
         <v>276</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>277</v>
       </c>
-      <c r="C34" t="s">
-        <v>278</v>
-      </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" t="s">
         <v>279</v>
       </c>
-      <c r="C35" t="s">
-        <v>280</v>
-      </c>
       <c r="D35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" t="s">
         <v>281</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
         <v>282</v>
-      </c>
-      <c r="D36" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" t="s">
         <v>285</v>
       </c>
-      <c r="C38" t="s">
-        <v>286</v>
-      </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B40" t="s">
         <v>288</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>289</v>
       </c>
-      <c r="C40" t="s">
-        <v>290</v>
-      </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" t="s">
         <v>291</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>230</v>
+      </c>
+      <c r="G41" t="s">
         <v>292</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G41" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" t="s">
         <v>294</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>295</v>
       </c>
-      <c r="C42" t="s">
-        <v>296</v>
-      </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" t="s">
         <v>297</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>298</v>
       </c>
-      <c r="C43" t="s">
-        <v>299</v>
-      </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" t="s">
         <v>301</v>
       </c>
-      <c r="C45" t="s">
-        <v>302</v>
-      </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" t="s">
         <v>303</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>304</v>
       </c>
-      <c r="C46" t="s">
-        <v>305</v>
-      </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" t="s">
         <v>307</v>
       </c>
-      <c r="C48" t="s">
-        <v>308</v>
-      </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" t="s">
         <v>309</v>
       </c>
-      <c r="C49" t="s">
-        <v>310</v>
-      </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" t="s">
         <v>311</v>
       </c>
-      <c r="C50" t="s">
-        <v>312</v>
-      </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
+        <v>314</v>
+      </c>
+      <c r="C53" t="s">
         <v>315</v>
       </c>
-      <c r="C53" t="s">
-        <v>316</v>
-      </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" t="s">
         <v>317</v>
       </c>
-      <c r="C54" t="s">
-        <v>318</v>
-      </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57" t="s">
         <v>321</v>
       </c>
-      <c r="C57" t="s">
-        <v>322</v>
-      </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" t="s">
         <v>323</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>324</v>
       </c>
-      <c r="C58" t="s">
-        <v>325</v>
-      </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" t="s">
         <v>327</v>
       </c>
-      <c r="C60" t="s">
-        <v>328</v>
-      </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61" t="s">
         <v>329</v>
       </c>
-      <c r="C61" t="s">
-        <v>330</v>
-      </c>
       <c r="D61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="s">
         <v>331</v>
       </c>
-      <c r="C62" t="s">
-        <v>332</v>
-      </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" t="s">
         <v>333</v>
       </c>
-      <c r="C63" t="s">
-        <v>334</v>
-      </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
+        <v>335</v>
+      </c>
+      <c r="C65" t="s">
         <v>336</v>
       </c>
-      <c r="C65" t="s">
-        <v>337</v>
-      </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" t="s">
         <v>338</v>
       </c>
-      <c r="C66" t="s">
-        <v>339</v>
-      </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" t="s">
         <v>340</v>
       </c>
-      <c r="C67" t="s">
-        <v>341</v>
-      </c>
       <c r="D67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
+        <v>341</v>
+      </c>
+      <c r="C68" t="s">
         <v>342</v>
       </c>
-      <c r="C68" t="s">
-        <v>343</v>
-      </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" t="s">
         <v>345</v>
       </c>
-      <c r="C70" t="s">
-        <v>346</v>
-      </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" t="s">
         <v>347</v>
       </c>
-      <c r="C71" t="s">
-        <v>348</v>
-      </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C72" t="s">
         <v>349</v>
       </c>
-      <c r="C72" t="s">
-        <v>350</v>
-      </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" t="s">
+        <v>350</v>
+      </c>
+      <c r="C73" t="s">
+        <v>351</v>
+      </c>
+      <c r="D73" t="s">
         <v>49</v>
       </c>
-      <c r="B73" t="s">
-        <v>351</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s">
         <v>352</v>
       </c>
-      <c r="D73" t="s">
-        <v>50</v>
-      </c>
-      <c r="E73" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s">
-        <v>353</v>
-      </c>
       <c r="G73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
+        <v>354</v>
+      </c>
+      <c r="C75" t="s">
         <v>355</v>
       </c>
-      <c r="C75" t="s">
-        <v>356</v>
-      </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76" t="s">
         <v>357</v>
       </c>
-      <c r="C76" t="s">
-        <v>358</v>
-      </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77" t="s">
         <v>359</v>
       </c>
-      <c r="C77" t="s">
-        <v>360</v>
-      </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" t="s">
         <v>361</v>
       </c>
-      <c r="C78" t="s">
-        <v>362</v>
-      </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
+        <v>362</v>
+      </c>
+      <c r="C79" t="s">
         <v>363</v>
       </c>
-      <c r="C79" t="s">
-        <v>364</v>
-      </c>
       <c r="D79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80" t="s">
+        <v>364</v>
+      </c>
+      <c r="C80" t="s">
         <v>365</v>
       </c>
-      <c r="C80" t="s">
-        <v>366</v>
-      </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
+        <v>368</v>
+      </c>
+      <c r="C83" t="s">
         <v>369</v>
       </c>
-      <c r="C83" t="s">
-        <v>370</v>
-      </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B84" t="s">
+        <v>370</v>
+      </c>
+      <c r="C84" t="s">
         <v>371</v>
       </c>
-      <c r="C84" t="s">
-        <v>372</v>
-      </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
+        <v>372</v>
+      </c>
+      <c r="C85" t="s">
         <v>373</v>
       </c>
-      <c r="C85" t="s">
-        <v>374</v>
-      </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
+        <v>374</v>
+      </c>
+      <c r="C86" t="s">
         <v>375</v>
       </c>
-      <c r="C86" t="s">
-        <v>376</v>
-      </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" t="s">
         <v>378</v>
       </c>
-      <c r="C88" t="s">
-        <v>379</v>
-      </c>
       <c r="D88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B89" t="s">
+        <v>379</v>
+      </c>
+      <c r="C89" t="s">
         <v>380</v>
       </c>
-      <c r="C89" t="s">
-        <v>381</v>
-      </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
+        <v>381</v>
+      </c>
+      <c r="C90" t="s">
         <v>382</v>
       </c>
-      <c r="C90" t="s">
-        <v>383</v>
-      </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
+        <v>386</v>
+      </c>
+      <c r="C94" t="s">
         <v>387</v>
       </c>
-      <c r="C94" t="s">
-        <v>388</v>
-      </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
+        <v>388</v>
+      </c>
+      <c r="C95" t="s">
         <v>389</v>
       </c>
-      <c r="C95" t="s">
-        <v>390</v>
-      </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B96" t="s">
+        <v>390</v>
+      </c>
+      <c r="C96" t="s">
         <v>391</v>
       </c>
-      <c r="C96" t="s">
-        <v>392</v>
-      </c>
       <c r="D96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B97" t="s">
+        <v>392</v>
+      </c>
+      <c r="C97" t="s">
         <v>393</v>
       </c>
-      <c r="C97" t="s">
-        <v>394</v>
-      </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
+        <v>394</v>
+      </c>
+      <c r="C98" t="s">
         <v>395</v>
       </c>
-      <c r="C98" t="s">
-        <v>396</v>
-      </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C99" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
+        <v>397</v>
+      </c>
+      <c r="C100" t="s">
         <v>398</v>
       </c>
-      <c r="C100" t="s">
-        <v>399</v>
-      </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
+        <v>402</v>
+      </c>
+      <c r="C104" t="s">
         <v>403</v>
       </c>
-      <c r="C104" t="s">
-        <v>404</v>
-      </c>
       <c r="D104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
+        <v>405</v>
+      </c>
+      <c r="C106" t="s">
         <v>406</v>
       </c>
-      <c r="C106" t="s">
-        <v>407</v>
-      </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B107" t="s">
+        <v>407</v>
+      </c>
+      <c r="C107" t="s">
         <v>408</v>
       </c>
-      <c r="C107" t="s">
-        <v>409</v>
-      </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B108" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C108" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B109" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B110" t="s">
+        <v>411</v>
+      </c>
+      <c r="C110" t="s">
         <v>412</v>
       </c>
-      <c r="C110" t="s">
-        <v>413</v>
-      </c>
       <c r="D110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E110" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
+        <v>416</v>
+      </c>
+      <c r="C114" t="s">
         <v>417</v>
       </c>
-      <c r="C114" t="s">
-        <v>418</v>
-      </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C115" t="s">
         <v>419</v>
       </c>
-      <c r="C115" t="s">
-        <v>420</v>
-      </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B116" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B117" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C117" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D117" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B119" t="s">
+        <v>423</v>
+      </c>
+      <c r="C119" t="s">
         <v>424</v>
       </c>
-      <c r="C119" t="s">
-        <v>425</v>
-      </c>
       <c r="D119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E119" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B120" t="s">
+        <v>425</v>
+      </c>
+      <c r="C120" t="s">
         <v>426</v>
       </c>
-      <c r="C120" t="s">
-        <v>427</v>
-      </c>
       <c r="D120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E120" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F120" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122" t="s">
+        <v>428</v>
+      </c>
+      <c r="C122" t="s">
         <v>429</v>
       </c>
-      <c r="C122" t="s">
-        <v>430</v>
-      </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" t="s">
+        <v>430</v>
+      </c>
+      <c r="C123" t="s">
+        <v>431</v>
+      </c>
+      <c r="D123" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" t="s">
         <v>144</v>
       </c>
-      <c r="B123" t="s">
-        <v>431</v>
-      </c>
-      <c r="C123" t="s">
-        <v>432</v>
-      </c>
-      <c r="D123" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" t="s">
-        <v>145</v>
-      </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B124" t="s">
+        <v>432</v>
+      </c>
+      <c r="C124" t="s">
         <v>433</v>
       </c>
-      <c r="C124" t="s">
-        <v>434</v>
-      </c>
       <c r="D124" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B126" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C126" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B127" t="s">
+        <v>436</v>
+      </c>
+      <c r="C127" t="s">
         <v>437</v>
       </c>
-      <c r="C127" t="s">
-        <v>438</v>
-      </c>
       <c r="D127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B128" t="s">
+        <v>438</v>
+      </c>
+      <c r="C128" t="s">
         <v>439</v>
       </c>
-      <c r="C128" t="s">
-        <v>440</v>
-      </c>
       <c r="D128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
+        <v>441</v>
+      </c>
+      <c r="C130" t="s">
         <v>442</v>
       </c>
-      <c r="C130" t="s">
-        <v>443</v>
-      </c>
       <c r="D130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E130" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F130" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D132" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G136" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G138" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E141" s="1" t="s">
+      <c r="F141" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G144" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F145" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F149" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F153" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="G154" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="F155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F156" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F157" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F158" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F159" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E163" s="1" t="s">
+      <c r="F163" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E165" s="1" t="s">
+      <c r="F165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F171" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D172" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G173" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E177" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="D178" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="F179" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F180" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="D181" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G182" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 2018.xlsx
+++ b/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin\Desktop\Dashboard_Vers1\data\Economic_Impact\GDP\Climate Risk Assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C79B3-3002-4666-8998-31C4AA4F3CF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B4A9EC-B6BB-401D-9E7D-49D92BDE94A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{DD317847-3D26-4A22-AE22-E51F2E491B1C}"/>
+    <workbookView xWindow="7620" yWindow="1545" windowWidth="29985" windowHeight="13665" xr2:uid="{DD317847-3D26-4A22-AE22-E51F2E491B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Page001" sheetId="2" r:id="rId1"/>
@@ -461,9 +461,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>Islamic Republic of Afghani-stan</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -476,9 +473,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>Islamic Republic of Iran</t>
-  </si>
-  <si>
     <t>64.83</t>
   </si>
   <si>
@@ -998,9 +992,6 @@
     <t>68</t>
   </si>
   <si>
-    <t>Democratic Republic of Congo</t>
-  </si>
-  <si>
     <t>69.83</t>
   </si>
   <si>
@@ -1449,6 +1440,15 @@
   </si>
   <si>
     <t>CRI score</t>
+  </si>
+  <si>
+    <t>Demokratische Republik Kongo</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
   </si>
 </sst>
 </file>
@@ -2006,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3CA5F-8695-4659-BC53-685EFB600366}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,53 +2031,53 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" t="s">
         <v>443</v>
-      </c>
-      <c r="E1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2086,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
         <v>70</v>
@@ -2097,22 +2097,22 @@
         <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
         <v>83</v>
       </c>
       <c r="E4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
         <v>208</v>
-      </c>
-      <c r="F4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -2140,19 +2140,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
         <v>212</v>
-      </c>
-      <c r="B6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" t="s">
-        <v>214</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -2166,7 +2166,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -2186,19 +2186,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
         <v>217</v>
-      </c>
-      <c r="B8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" t="s">
-        <v>219</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -2212,19 +2212,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" t="s">
         <v>221</v>
       </c>
-      <c r="C9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" t="s">
-        <v>223</v>
-      </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G9" t="s">
         <v>93</v>
@@ -2235,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2278,25 +2278,25 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
         <v>226</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" t="s">
         <v>227</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
         <v>228</v>
-      </c>
-      <c r="D12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -2324,13 +2324,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" t="s">
         <v>232</v>
-      </c>
-      <c r="B14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" t="s">
-        <v>234</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2362,7 +2362,7 @@
         <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -2373,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2393,25 +2393,25 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s">
         <v>242</v>
-      </c>
-      <c r="B19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" t="s">
-        <v>244</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -2480,7 +2480,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -2508,25 +2508,25 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" t="s">
         <v>248</v>
-      </c>
-      <c r="B22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" t="s">
-        <v>250</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2534,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -2557,10 +2557,10 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -2572,7 +2572,7 @@
         <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2580,7 +2580,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -2603,22 +2603,22 @@
         <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2626,56 +2626,56 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" t="s">
         <v>258</v>
       </c>
-      <c r="C27" t="s">
-        <v>259</v>
-      </c>
-      <c r="D27" t="s">
-        <v>260</v>
-      </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" t="s">
         <v>261</v>
-      </c>
-      <c r="B28" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" t="s">
-        <v>263</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" t="s">
         <v>264</v>
-      </c>
-      <c r="B29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" t="s">
-        <v>266</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
@@ -2684,7 +2684,7 @@
         <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G29" t="s">
         <v>38</v>
@@ -2695,7 +2695,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -2715,19 +2715,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" t="s">
         <v>268</v>
       </c>
-      <c r="B31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" t="s">
-        <v>270</v>
-      </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
         <v>59</v>
@@ -2741,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -2761,13 +2761,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -2779,24 +2779,24 @@
         <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" t="s">
         <v>275</v>
-      </c>
-      <c r="B34" t="s">
-        <v>276</v>
-      </c>
-      <c r="C34" t="s">
-        <v>277</v>
       </c>
       <c r="D34" t="s">
         <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" t="s">
         <v>64</v>
@@ -2810,13 +2810,13 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E35" t="s">
         <v>55</v>
@@ -2825,30 +2825,30 @@
         <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F36" t="s">
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2856,7 +2856,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2876,36 +2876,36 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D38" t="s">
         <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" t="s">
         <v>126</v>
-      </c>
-      <c r="B39" t="s">
-        <v>286</v>
-      </c>
-      <c r="C39" t="s">
-        <v>128</v>
       </c>
       <c r="D39" t="s">
         <v>74</v>
@@ -2914,7 +2914,7 @@
         <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G39" t="s">
         <v>22</v>
@@ -2922,14 +2922,14 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" t="s">
         <v>287</v>
       </c>
-      <c r="B40" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" t="s">
-        <v>289</v>
-      </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -2948,10 +2948,10 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D41" t="s">
         <v>88</v>
@@ -2960,21 +2960,21 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" t="s">
         <v>293</v>
-      </c>
-      <c r="B42" t="s">
-        <v>294</v>
-      </c>
-      <c r="C42" t="s">
-        <v>295</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -2983,30 +2983,30 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s">
-        <v>297</v>
+        <v>445</v>
       </c>
       <c r="C43" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
         <v>71</v>
@@ -3017,7 +3017,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -3040,45 +3040,45 @@
         <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C45" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D45" t="s">
         <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D46" t="s">
         <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F46" t="s">
         <v>88</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3086,7 +3086,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -3106,22 +3106,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D48" t="s">
         <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G48" t="s">
         <v>116</v>
@@ -3132,33 +3132,33 @@
         <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C49" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G49" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C50" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -3170,7 +3170,7 @@
         <v>116</v>
       </c>
       <c r="G50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -3201,10 +3201,10 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -3213,21 +3213,21 @@
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C53" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -3236,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G53" t="s">
         <v>2</v>
@@ -3247,16 +3247,16 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D54" t="s">
         <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F54" t="s">
         <v>63</v>
@@ -3270,7 +3270,7 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C57" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D57" t="s">
         <v>34</v>
@@ -3331,18 +3331,18 @@
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B58" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C58" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -3362,7 +3362,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -3385,13 +3385,13 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C60" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E60" t="s">
         <v>94</v>
@@ -3408,22 +3408,22 @@
         <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C61" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3431,42 +3431,42 @@
         <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C62" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C63" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
         <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -3477,22 +3477,22 @@
         <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D64" t="s">
         <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3500,22 +3500,22 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E65" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
         <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3523,10 +3523,10 @@
         <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D66" t="s">
         <v>34</v>
@@ -3543,48 +3543,48 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D67" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E67" t="s">
         <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C68" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D68" t="s">
         <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -3612,13 +3612,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C70" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
@@ -3630,7 +3630,7 @@
         <v>92</v>
       </c>
       <c r="G70" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3638,10 +3638,10 @@
         <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C71" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -3650,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G71" t="s">
         <v>50</v>
@@ -3658,25 +3658,25 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C72" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D72" t="s">
         <v>105</v>
       </c>
       <c r="E72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3684,10 +3684,10 @@
         <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C73" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D73" t="s">
         <v>49</v>
@@ -3696,10 +3696,10 @@
         <v>77</v>
       </c>
       <c r="F73" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G73" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3707,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -3730,19 +3730,19 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D75" t="s">
         <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F75" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -3750,25 +3750,25 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C76" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D76" t="s">
         <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3776,10 +3776,10 @@
         <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C77" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D77" t="s">
         <v>64</v>
@@ -3799,16 +3799,16 @@
         <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C78" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D78" t="s">
         <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F78" t="s">
         <v>58</v>
@@ -3819,36 +3819,36 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C79" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D79" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E79" t="s">
         <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C80" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -3857,10 +3857,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -3891,7 +3891,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3911,16 +3911,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C83" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D83" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
         <v>65</v>
@@ -3929,18 +3929,18 @@
         <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C84" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D84" t="s">
         <v>112</v>
@@ -3952,53 +3952,53 @@
         <v>117</v>
       </c>
       <c r="G84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B85" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C85" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F85" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
         <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -4026,13 +4026,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B88" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C88" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D88" t="s">
         <v>77</v>
@@ -4041,7 +4041,7 @@
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G88" t="s">
         <v>99</v>
@@ -4049,13 +4049,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B89" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C89" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D89" t="s">
         <v>11</v>
@@ -4064,10 +4064,10 @@
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4075,10 +4075,10 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C90" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D90" t="s">
         <v>116</v>
@@ -4087,10 +4087,10 @@
         <v>116</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4098,7 +4098,7 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -4121,7 +4121,7 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -4144,7 +4144,7 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -4167,10 +4167,10 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C94" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D94" t="s">
         <v>34</v>
@@ -4179,21 +4179,21 @@
         <v>54</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G94" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C95" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D95" t="s">
         <v>116</v>
@@ -4210,22 +4210,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C96" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E96" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G96" t="s">
         <v>58</v>
@@ -4236,22 +4236,22 @@
         <v>36</v>
       </c>
       <c r="B97" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C97" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E97" t="s">
         <v>113</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G97" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4259,10 +4259,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C98" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -4274,7 +4274,7 @@
         <v>96</v>
       </c>
       <c r="G98" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4282,16 +4282,16 @@
         <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C99" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D99" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E99" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F99" t="s">
         <v>105</v>
@@ -4305,16 +4305,16 @@
         <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C100" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D100" t="s">
         <v>54</v>
       </c>
       <c r="E100" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F100" t="s">
         <v>31</v>
@@ -4328,7 +4328,7 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -4351,7 +4351,7 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -4374,7 +4374,7 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -4397,10 +4397,10 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C104" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D104" t="s">
         <v>2</v>
@@ -4420,7 +4420,7 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -4440,13 +4440,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C106" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D106" t="s">
         <v>20</v>
@@ -4455,7 +4455,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G106" t="s">
         <v>117</v>
@@ -4463,37 +4463,37 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C107" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D107" t="s">
         <v>116</v>
       </c>
       <c r="E107" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F107" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>266</v>
+      </c>
+      <c r="B108" t="s">
+        <v>406</v>
+      </c>
+      <c r="C108" t="s">
         <v>268</v>
-      </c>
-      <c r="B108" t="s">
-        <v>409</v>
-      </c>
-      <c r="C108" t="s">
-        <v>270</v>
       </c>
       <c r="D108" t="s">
         <v>49</v>
@@ -4502,22 +4502,22 @@
         <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B109" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C109" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D109" t="s">
         <v>108</v>
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>88</v>
@@ -4538,22 +4538,22 @@
         <v>95</v>
       </c>
       <c r="B110" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C110" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D110" t="s">
         <v>93</v>
       </c>
       <c r="E110" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I110" s="1"/>
     </row>
@@ -4562,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
@@ -4586,7 +4586,7 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -4610,7 +4610,7 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -4631,13 +4631,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C114" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D114" t="s">
         <v>20</v>
@@ -4655,13 +4655,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B115" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C115" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D115" t="s">
         <v>11</v>
@@ -4679,16 +4679,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>291</v>
+      </c>
+      <c r="B116" t="s">
+        <v>417</v>
+      </c>
+      <c r="C116" t="s">
         <v>293</v>
       </c>
-      <c r="B116" t="s">
-        <v>420</v>
-      </c>
-      <c r="C116" t="s">
-        <v>295</v>
-      </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
@@ -4697,7 +4697,7 @@
         <v>75</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I116" s="1"/>
     </row>
@@ -4706,19 +4706,19 @@
         <v>89</v>
       </c>
       <c r="B117" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D117" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E117" t="s">
         <v>71</v>
       </c>
       <c r="F117" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>12</v>
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -4754,19 +4754,19 @@
         <v>63</v>
       </c>
       <c r="B119" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C119" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E119" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F119" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>43</v>
@@ -4778,19 +4778,19 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C120" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D120" t="s">
         <v>116</v>
       </c>
       <c r="E120" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F120" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>17</v>
@@ -4802,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -4826,19 +4826,19 @@
         <v>94</v>
       </c>
       <c r="B122" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C122" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D122" t="s">
         <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>5</v>
@@ -4847,37 +4847,37 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B123" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C123" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D123" t="s">
         <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F123" t="s">
         <v>53</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C124" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D124" t="s">
         <v>88</v>
@@ -4886,7 +4886,7 @@
         <v>74</v>
       </c>
       <c r="F124" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>81</v>
@@ -4898,7 +4898,7 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -4919,37 +4919,37 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B126" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C126" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D126" t="s">
         <v>20</v>
       </c>
       <c r="E126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C127" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D127" t="s">
         <v>88</v>
@@ -4958,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>11</v>
@@ -4967,22 +4967,22 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C128" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E128" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F128" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>41</v>
@@ -4994,7 +4994,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -5015,25 +5015,25 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C130" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D130" t="s">
         <v>116</v>
       </c>
       <c r="E130" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F130" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I130" s="1"/>
     </row>
@@ -5640,16 +5640,16 @@
         <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>16</v>
@@ -5660,71 +5660,71 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D159" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5732,22 +5732,22 @@
         <v>22</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5755,10 +5755,10 @@
         <v>53</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>104</v>
@@ -5770,30 +5770,30 @@
         <v>50</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5801,10 +5801,10 @@
         <v>11</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>11</v>
@@ -5816,7 +5816,7 @@
         <v>109</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5824,22 +5824,22 @@
         <v>81</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5847,7 +5847,7 @@
         <v>8</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>10</v>
@@ -5870,7 +5870,7 @@
         <v>88</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>115</v>
@@ -5885,7 +5885,7 @@
         <v>49</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5893,7 +5893,7 @@
         <v>8</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>10</v>
@@ -5916,7 +5916,7 @@
         <v>24</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>26</v>
@@ -5931,7 +5931,7 @@
         <v>93</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5939,22 +5939,22 @@
         <v>99</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5962,33 +5962,33 @@
         <v>58</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>20</v>
@@ -6000,7 +6000,7 @@
         <v>41</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6008,33 +6008,33 @@
         <v>42</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G173" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>112</v>
@@ -6046,7 +6046,7 @@
         <v>23</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6054,7 +6054,7 @@
         <v>8</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>10</v>
@@ -6077,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>10</v>
@@ -6100,19 +6100,19 @@
         <v>105</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="E177" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>31</v>
@@ -6123,10 +6123,10 @@
         <v>113</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>11</v>
@@ -6146,16 +6146,16 @@
         <v>64</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>2</v>
@@ -6169,33 +6169,33 @@
         <v>116</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>75</v>
@@ -6204,7 +6204,7 @@
         <v>16</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>96</v>
@@ -6212,22 +6212,22 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>94</v>
@@ -6238,7 +6238,7 @@
         <v>8</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>10</v>
@@ -6261,7 +6261,7 @@
         <v>8</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>10</v>

--- a/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 2018.xlsx
+++ b/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin\Desktop\Dashboard_Vers1\data\Economic_Impact\GDP\Climate Risk Assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B4A9EC-B6BB-401D-9E7D-49D92BDE94A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60547793-EB3B-4FB2-B67A-FC6B6E0FB2A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1545" windowWidth="29985" windowHeight="13665" xr2:uid="{DD317847-3D26-4A22-AE22-E51F2E491B1C}"/>
+    <workbookView xWindow="7965" yWindow="1890" windowWidth="29985" windowHeight="13665" xr2:uid="{DD317847-3D26-4A22-AE22-E51F2E491B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Page001" sheetId="2" r:id="rId1"/>
@@ -1442,13 +1442,13 @@
     <t>CRI score</t>
   </si>
   <si>
-    <t>Demokratische Republik Kongo</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
     <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep. Of</t>
   </si>
 </sst>
 </file>
@@ -2006,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3CA5F-8695-4659-BC53-685EFB600366}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,7 +2994,7 @@
         <v>294</v>
       </c>
       <c r="B43" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C43" t="s">
         <v>295</v>
@@ -5640,7 +5640,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>118</v>
@@ -5663,7 +5663,7 @@
         <v>121</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>122</v>
